--- a/data/disctionary_suivi.xlsx
+++ b/data/disctionary_suivi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="100" windowWidth="19140" windowHeight="7590" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="19140" windowHeight="7590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="suivi_dict" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="442">
   <si>
     <t>BASELINE_INTERVIEW_QUEST</t>
   </si>
@@ -529,9 +529,6 @@
     <t>Eclairage étude suffisant</t>
   </si>
   <si>
-    <t>FIELD_PARTNER_SINGLE_FCT_VS1</t>
-  </si>
-  <si>
     <t>MNP</t>
   </si>
   <si>
@@ -562,18 +559,12 @@
     <t>E</t>
   </si>
   <si>
-    <t>SEXE_VS1</t>
-  </si>
-  <si>
     <t>Homme</t>
   </si>
   <si>
     <t>Femme</t>
   </si>
   <si>
-    <t>SITUATION_MARITALE_VS1</t>
-  </si>
-  <si>
     <t>Célibataire</t>
   </si>
   <si>
@@ -586,9 +577,6 @@
     <t>Ne s'applique pas/Pas de réponse</t>
   </si>
   <si>
-    <t>Q1_APPAREIL_UTILISE_VS1</t>
-  </si>
-  <si>
     <t>Eclairage et chargeur mobile fournit avec le système solaire</t>
   </si>
   <si>
@@ -598,33 +586,21 @@
     <t>Autre utilisation</t>
   </si>
   <si>
-    <t>Q2_PROBLEMES_RENCONTRES_VS1</t>
-  </si>
-  <si>
     <t>Oui</t>
   </si>
   <si>
     <t>Non</t>
   </si>
   <si>
-    <t>Q3_SI_PROBLEME_AVEZ_VOUS_CONTACTE_UNE_INGENIEUR_VS1</t>
-  </si>
-  <si>
     <t>Non, Comment avez-vous réglé le problème</t>
   </si>
   <si>
-    <t>Q4_INGENIEURE_SOLAIRE_A_PU_REGLER_L_VS1</t>
-  </si>
-  <si>
     <t>Oui, est-ce que cela a pu être réglé rapidement ?</t>
   </si>
   <si>
     <t>Quelquefois, expliquer</t>
   </si>
   <si>
-    <t>Q5_FREQUENCE_VERIFICATION_VS1</t>
-  </si>
-  <si>
     <t>Deux fois par mois</t>
   </si>
   <si>
@@ -637,9 +613,6 @@
     <t>Jamais ou  seulement lorsque j'ai appelé</t>
   </si>
   <si>
-    <t>Q6_A_SOURCE_ECLAIRAGE_VS1</t>
-  </si>
-  <si>
     <t>Système solaire (SHS)</t>
   </si>
   <si>
@@ -673,33 +646,18 @@
     <t>H</t>
   </si>
   <si>
-    <t>Q6_TYPE_LAMPE_PETROLE_VS1</t>
-  </si>
-  <si>
     <t>Simple lampe en métal avec une mèche</t>
   </si>
   <si>
     <t>Lanterne type Petromax ou autre marque</t>
   </si>
   <si>
-    <t>Q6_PLUS_DE_SOURCE_VS1</t>
-  </si>
-  <si>
-    <t>Q8_EPARGNE_VS1</t>
-  </si>
-  <si>
     <t>Oui, Expliquer</t>
   </si>
   <si>
-    <t>Q9_ECLAIRAGE_SOLAIRE_EST_SUFFISANT_VS1</t>
-  </si>
-  <si>
     <t>Non, expliquer</t>
   </si>
   <si>
-    <t>Q10_IMPACT_VIE_QUOTIDIENNE_A_CHANGE_APRES_VS1</t>
-  </si>
-  <si>
     <t>La qualité de l'air s'est amélioré</t>
   </si>
   <si>
@@ -754,9 +712,6 @@
     <t xml:space="preserve">I        </t>
   </si>
   <si>
-    <t>Q11_NIVEAU_SATISFACTION_VS1</t>
-  </si>
-  <si>
     <t>Satisfait par l'équipement mais pas par le service</t>
   </si>
   <si>
@@ -766,30 +721,12 @@
     <t>Insatisfait par le service et par l'équipement</t>
   </si>
   <si>
-    <t>SATISFACTION_PAR_RAPPORT_AU_TRAVAIL_DES_FEMMES_I_VS1</t>
-  </si>
-  <si>
-    <t>N_SATISFACTION_PAR_RAPPORT_AU_TRAVAIL_DU_COMITE_VS1</t>
-  </si>
-  <si>
-    <t>N_UTILISATION_TELEPHONE_VS1</t>
-  </si>
-  <si>
-    <t>N_UTILISATION_RADIO_VS1</t>
-  </si>
-  <si>
-    <t>N_TYPE_DE_RADIO_VS1</t>
-  </si>
-  <si>
     <t>radio à piles</t>
   </si>
   <si>
     <t>radio à manivelle</t>
   </si>
   <si>
-    <t>N_TYPE_DE_FOYER_VS1</t>
-  </si>
-  <si>
     <t>Foyer amélioré</t>
   </si>
   <si>
@@ -805,9 +742,6 @@
     <t>Foyer en brique</t>
   </si>
   <si>
-    <t>N_ENERGIE_DE_CUISSON_MULT_FCT_VS1</t>
-  </si>
-  <si>
     <t xml:space="preserve">A    </t>
   </si>
   <si>
@@ -844,12 +778,6 @@
     <t>Cuisine communautaire</t>
   </si>
   <si>
-    <t>N_FUMEE_NOIR_ECLAIRAGE_VS1</t>
-  </si>
-  <si>
-    <t>N_PROBLEME_SANTE_VS1</t>
-  </si>
-  <si>
     <t>Empoisonnement due au pétrole</t>
   </si>
   <si>
@@ -895,24 +823,6 @@
     <t xml:space="preserve">H   </t>
   </si>
   <si>
-    <t>N_CASBRULURE_INCENDIE_CAUSE_DOMESTIQUE_VS1</t>
-  </si>
-  <si>
-    <t>N_VICTIME_INCENDIES_POUR_CAUSE_DOMESTIQUE_VS1</t>
-  </si>
-  <si>
-    <t>N_PARTICIPATION_FEMMES_ASSOCIATION_VS1</t>
-  </si>
-  <si>
-    <t>N_PARTICIPATION_FEMMES_AUX_DECISION_VS1</t>
-  </si>
-  <si>
-    <t>N_PARTICIPATION_FEMMES_VS1</t>
-  </si>
-  <si>
-    <t>N_PRISE_DECISION_DEPENSES_FOYER_VS1</t>
-  </si>
-  <si>
     <t>Le mari</t>
   </si>
   <si>
@@ -925,15 +835,6 @@
     <t>Décision consensuelle</t>
   </si>
   <si>
-    <t>N_FEMME_AYANT_COMPTE_BANCAIRE_VS1</t>
-  </si>
-  <si>
-    <t>N_ENFANTS_VONT_A_L_ECOLE_VS1</t>
-  </si>
-  <si>
-    <t>N_H_LECTURE_OU_ETUDE_PAR_JOUR_VS1</t>
-  </si>
-  <si>
     <t>Moins d'une heure</t>
   </si>
   <si>
@@ -946,9 +847,6 @@
     <t>Pas applicable</t>
   </si>
   <si>
-    <t>N_MOMENT_DEVOIRS_VS1</t>
-  </si>
-  <si>
     <t>Matin</t>
   </si>
   <si>
@@ -968,9 +866,6 @@
   </si>
   <si>
     <t xml:space="preserve">D  </t>
-  </si>
-  <si>
-    <t>N_ECLAIRAGE_ETUDE_SUFFISANT_VS1</t>
   </si>
   <si>
     <t>Baseline_Interview questionnaire</t>
@@ -1788,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85:F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2481,1251 +2376,1655 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D190"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.90625" customWidth="1"/>
+    <col min="2" max="2" width="28.36328125" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" customWidth="1"/>
+    <col min="4" max="4" width="24.90625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>170</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" t="s">
         <v>171</v>
-      </c>
-      <c r="D2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
+      <c r="C8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
       <c r="C9" t="s">
         <v>182</v>
       </c>
       <c r="D9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
       <c r="C10" t="s">
         <v>183</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
+      <c r="C12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
       <c r="C14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
       <c r="C15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
       <c r="C16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D16" t="s">
-        <v>178</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
         <v>189</v>
       </c>
-      <c r="B18" t="s">
-        <v>39</v>
+      <c r="D18" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
       <c r="C19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
         <v>190</v>
       </c>
-      <c r="D19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C20" t="s">
-        <v>191</v>
-      </c>
-      <c r="D20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C21" t="s">
-        <v>192</v>
-      </c>
       <c r="D21" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>193</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
       <c r="C24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
       <c r="C25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D25" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
       <c r="C28" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
       <c r="C29" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D29" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>201</v>
+      </c>
+      <c r="D30" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
       <c r="C32" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D32" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
       <c r="C33" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="D33" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
       <c r="C34" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D34" t="s">
-        <v>176</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>209</v>
+      </c>
+      <c r="D35" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>201</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D36" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
       <c r="C37" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
       <c r="C38" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
       <c r="C39" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D39" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
       <c r="C40" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D40" t="s">
-        <v>178</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D41" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>206</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
+        <v>215</v>
+      </c>
+      <c r="D42" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
       <c r="C43" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="D43" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
       <c r="C44" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="D44" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
       <c r="C45" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="D45" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
       <c r="C46" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D46" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" t="s">
+        <v>87</v>
+      </c>
       <c r="C47" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="D47" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" t="s">
+        <v>87</v>
+      </c>
       <c r="C48" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="D48" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" t="s">
+        <v>87</v>
+      </c>
       <c r="C49" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="D49" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" t="s">
+        <v>91</v>
+      </c>
       <c r="C50" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D50" t="s">
-        <v>217</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" t="s">
+        <v>231</v>
+      </c>
+      <c r="D51" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>218</v>
+        <v>90</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>91</v>
+      </c>
+      <c r="C52" t="s">
+        <v>232</v>
+      </c>
+      <c r="D52" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" t="s">
+        <v>91</v>
+      </c>
       <c r="C53" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="D53" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" t="s">
+        <v>99</v>
+      </c>
       <c r="C54" t="s">
-        <v>220</v>
-      </c>
-      <c r="D54" t="s">
-        <v>174</v>
+        <v>189</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>221</v>
+        <v>100</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>101</v>
+      </c>
+      <c r="C56" t="s">
+        <v>189</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" t="s">
+        <v>101</v>
+      </c>
       <c r="C57" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" t="s">
+        <v>189</v>
+      </c>
+      <c r="D58">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C58" t="s">
-        <v>195</v>
-      </c>
-      <c r="D58">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" t="s">
+        <v>190</v>
+      </c>
+      <c r="D59">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>109</v>
+      </c>
+      <c r="C60" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" t="s">
+        <v>109</v>
+      </c>
       <c r="C61" t="s">
-        <v>223</v>
-      </c>
-      <c r="D61" t="s">
-        <v>172</v>
+        <v>190</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" t="s">
+        <v>111</v>
+      </c>
       <c r="C62" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="D62" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" t="s">
+        <v>235</v>
+      </c>
+      <c r="D63" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>111</v>
+      </c>
+      <c r="C64" t="s">
+        <v>207</v>
+      </c>
+      <c r="D64" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" t="s">
+        <v>119</v>
+      </c>
       <c r="C65" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="D65" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" t="s">
+        <v>119</v>
+      </c>
       <c r="C66" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="D66" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" t="s">
+        <v>238</v>
+      </c>
+      <c r="D67" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>226</v>
+        <v>118</v>
       </c>
       <c r="B68" t="s">
-        <v>87</v>
+        <v>119</v>
+      </c>
+      <c r="C68" t="s">
+        <v>239</v>
+      </c>
+      <c r="D68" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" t="s">
+        <v>119</v>
+      </c>
       <c r="C69" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="D69" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" t="s">
+        <v>119</v>
+      </c>
       <c r="C70" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="D70" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" t="s">
+        <v>121</v>
+      </c>
       <c r="C71" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="D71" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" t="s">
+        <v>121</v>
+      </c>
       <c r="C72" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D72" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" t="s">
+        <v>121</v>
+      </c>
       <c r="C73" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D73" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" t="s">
+        <v>121</v>
+      </c>
       <c r="C74" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D74" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75" t="s">
+        <v>121</v>
+      </c>
       <c r="C75" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="D75" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>249</v>
+      </c>
+      <c r="B76" t="s">
+        <v>125</v>
+      </c>
       <c r="C76" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D76" t="s">
-        <v>242</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" t="s">
+        <v>125</v>
+      </c>
       <c r="C77" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D77" t="s">
-        <v>244</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>124</v>
+      </c>
+      <c r="B78" t="s">
+        <v>125</v>
+      </c>
+      <c r="C78" t="s">
+        <v>252</v>
+      </c>
+      <c r="D78" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>245</v>
+        <v>124</v>
       </c>
       <c r="B79" t="s">
-        <v>91</v>
+        <v>125</v>
+      </c>
+      <c r="C79" t="s">
+        <v>207</v>
+      </c>
+      <c r="D79" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" t="s">
+        <v>129</v>
+      </c>
       <c r="C80" t="s">
-        <v>194</v>
-      </c>
-      <c r="D80" t="s">
-        <v>172</v>
+        <v>189</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>130</v>
+      </c>
+      <c r="B81" t="s">
+        <v>131</v>
+      </c>
       <c r="C81" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D81" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>130</v>
+      </c>
+      <c r="B82" t="s">
+        <v>131</v>
+      </c>
       <c r="C82" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D82" t="s">
-        <v>176</v>
+        <v>256</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" t="s">
+        <v>131</v>
+      </c>
       <c r="C83" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D83" t="s">
-        <v>178</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>130</v>
+      </c>
+      <c r="B84" t="s">
+        <v>131</v>
+      </c>
+      <c r="C84" t="s">
+        <v>259</v>
+      </c>
+      <c r="D84" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>249</v>
+        <v>130</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>131</v>
+      </c>
+      <c r="C85" t="s">
+        <v>261</v>
+      </c>
+      <c r="D85" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86" t="s">
+        <v>131</v>
+      </c>
       <c r="C86" t="s">
-        <v>194</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
+        <v>263</v>
+      </c>
+      <c r="D86" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87" t="s">
+        <v>131</v>
+      </c>
       <c r="C87" t="s">
-        <v>195</v>
-      </c>
-      <c r="D87">
-        <v>2</v>
+        <v>265</v>
+      </c>
+      <c r="D87" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>130</v>
+      </c>
+      <c r="B88" t="s">
+        <v>131</v>
+      </c>
+      <c r="C88" t="s">
+        <v>207</v>
+      </c>
+      <c r="D88" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c r="B89" t="s">
-        <v>101</v>
+        <v>135</v>
+      </c>
+      <c r="C89" t="s">
+        <v>189</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>134</v>
+      </c>
+      <c r="B90" t="s">
+        <v>135</v>
+      </c>
       <c r="C90" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>138</v>
+      </c>
+      <c r="B91" t="s">
+        <v>139</v>
+      </c>
+      <c r="C91" t="s">
+        <v>189</v>
+      </c>
+      <c r="D91">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C91" t="s">
-        <v>195</v>
-      </c>
-      <c r="D91">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>138</v>
+      </c>
+      <c r="B92" t="s">
+        <v>139</v>
+      </c>
+      <c r="C92" t="s">
+        <v>190</v>
+      </c>
+      <c r="D92">
         <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>251</v>
+        <v>148</v>
       </c>
       <c r="B93" t="s">
-        <v>105</v>
+        <v>149</v>
+      </c>
+      <c r="C93" t="s">
+        <v>189</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>148</v>
+      </c>
+      <c r="B94" t="s">
+        <v>149</v>
+      </c>
       <c r="C94" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>150</v>
+      </c>
+      <c r="B95" t="s">
+        <v>151</v>
+      </c>
+      <c r="C95" t="s">
+        <v>189</v>
+      </c>
+      <c r="D95">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C95" t="s">
-        <v>195</v>
-      </c>
-      <c r="D95">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>150</v>
+      </c>
+      <c r="B96" t="s">
+        <v>151</v>
+      </c>
+      <c r="C96" t="s">
+        <v>190</v>
+      </c>
+      <c r="D96">
         <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>252</v>
+        <v>154</v>
       </c>
       <c r="B97" t="s">
-        <v>109</v>
+        <v>155</v>
+      </c>
+      <c r="C97" t="s">
+        <v>189</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>154</v>
+      </c>
+      <c r="B98" t="s">
+        <v>155</v>
+      </c>
       <c r="C98" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>156</v>
+      </c>
+      <c r="B99" t="s">
+        <v>157</v>
+      </c>
       <c r="C99" t="s">
-        <v>195</v>
-      </c>
-      <c r="D99">
-        <v>2</v>
+        <v>268</v>
+      </c>
+      <c r="D99" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>156</v>
+      </c>
+      <c r="B100" t="s">
+        <v>157</v>
+      </c>
+      <c r="C100" t="s">
+        <v>269</v>
+      </c>
+      <c r="D100" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>253</v>
+        <v>156</v>
       </c>
       <c r="B101" t="s">
-        <v>111</v>
+        <v>157</v>
+      </c>
+      <c r="C101" t="s">
+        <v>270</v>
+      </c>
+      <c r="D101" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>156</v>
+      </c>
+      <c r="B102" t="s">
+        <v>157</v>
+      </c>
       <c r="C102" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="D102" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>156</v>
+      </c>
+      <c r="B103" t="s">
+        <v>157</v>
+      </c>
       <c r="C103" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="D103" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>158</v>
+      </c>
+      <c r="B104" t="s">
+        <v>159</v>
+      </c>
       <c r="C104" t="s">
-        <v>216</v>
-      </c>
-      <c r="D104" t="s">
-        <v>176</v>
+        <v>189</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>158</v>
+      </c>
+      <c r="B105" t="s">
+        <v>159</v>
+      </c>
+      <c r="C105" t="s">
+        <v>190</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c r="B106" t="s">
-        <v>119</v>
+        <v>163</v>
+      </c>
+      <c r="C106" t="s">
+        <v>189</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>162</v>
+      </c>
+      <c r="B107" t="s">
+        <v>163</v>
+      </c>
       <c r="C107" t="s">
-        <v>257</v>
-      </c>
-      <c r="D107" t="s">
-        <v>172</v>
+        <v>190</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>164</v>
+      </c>
+      <c r="B108" t="s">
+        <v>165</v>
+      </c>
       <c r="C108" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="D108" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>164</v>
+      </c>
+      <c r="B109" t="s">
+        <v>165</v>
+      </c>
       <c r="C109" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="D109" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>164</v>
+      </c>
+      <c r="B110" t="s">
+        <v>165</v>
+      </c>
       <c r="C110" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="D110" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>164</v>
+      </c>
+      <c r="B111" t="s">
+        <v>165</v>
+      </c>
       <c r="C111" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="D111" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>166</v>
+      </c>
+      <c r="B112" t="s">
+        <v>167</v>
+      </c>
       <c r="C112" t="s">
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="D112" t="s">
-        <v>213</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>166</v>
+      </c>
+      <c r="B113" t="s">
+        <v>167</v>
+      </c>
+      <c r="C113" t="s">
+        <v>278</v>
+      </c>
+      <c r="D113" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>262</v>
+        <v>166</v>
       </c>
       <c r="B114" t="s">
-        <v>121</v>
+        <v>167</v>
+      </c>
+      <c r="C114" t="s">
+        <v>280</v>
+      </c>
+      <c r="D114" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>166</v>
+      </c>
+      <c r="B115" t="s">
+        <v>167</v>
+      </c>
       <c r="C115" t="s">
-        <v>209</v>
+        <v>275</v>
       </c>
       <c r="D115" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>168</v>
+      </c>
+      <c r="B116" t="s">
+        <v>169</v>
+      </c>
       <c r="C116" t="s">
-        <v>264</v>
-      </c>
-      <c r="D116" t="s">
-        <v>265</v>
+        <v>189</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>168</v>
+      </c>
+      <c r="B117" t="s">
+        <v>169</v>
+      </c>
       <c r="C117" t="s">
-        <v>266</v>
-      </c>
-      <c r="D117" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C118" t="s">
-        <v>268</v>
-      </c>
-      <c r="D118" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C119" t="s">
-        <v>216</v>
-      </c>
-      <c r="D119" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>271</v>
-      </c>
-      <c r="B121" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C122" t="s">
-        <v>272</v>
-      </c>
-      <c r="D122" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C123" t="s">
-        <v>273</v>
-      </c>
-      <c r="D123" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C124" t="s">
-        <v>274</v>
-      </c>
-      <c r="D124" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C125" t="s">
-        <v>216</v>
-      </c>
-      <c r="D125" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>275</v>
-      </c>
-      <c r="B127" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C128" t="s">
-        <v>194</v>
-      </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C129" t="s">
-        <v>195</v>
-      </c>
-      <c r="D129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>276</v>
-      </c>
-      <c r="B131" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C132" t="s">
-        <v>277</v>
-      </c>
-      <c r="D132" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C133" t="s">
-        <v>279</v>
-      </c>
-      <c r="D133" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C134" t="s">
-        <v>281</v>
-      </c>
-      <c r="D134" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C135" t="s">
-        <v>283</v>
-      </c>
-      <c r="D135" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C136" t="s">
-        <v>285</v>
-      </c>
-      <c r="D136" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C137" t="s">
-        <v>287</v>
-      </c>
-      <c r="D137" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C138" t="s">
-        <v>289</v>
-      </c>
-      <c r="D138" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C139" t="s">
-        <v>216</v>
-      </c>
-      <c r="D139" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>292</v>
-      </c>
-      <c r="B141" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C142" t="s">
-        <v>194</v>
-      </c>
-      <c r="D142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C143" t="s">
-        <v>195</v>
-      </c>
-      <c r="D143">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>293</v>
-      </c>
-      <c r="B145" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C146" t="s">
-        <v>194</v>
-      </c>
-      <c r="D146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C147" t="s">
-        <v>195</v>
-      </c>
-      <c r="D147">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>294</v>
-      </c>
-      <c r="B149" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C150" t="s">
-        <v>194</v>
-      </c>
-      <c r="D150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C151" t="s">
-        <v>195</v>
-      </c>
-      <c r="D151">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>295</v>
-      </c>
-      <c r="B153" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C154" t="s">
-        <v>194</v>
-      </c>
-      <c r="D154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C155" t="s">
-        <v>195</v>
-      </c>
-      <c r="D155">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>296</v>
-      </c>
-      <c r="B157" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C158" t="s">
-        <v>194</v>
-      </c>
-      <c r="D158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C159" t="s">
-        <v>195</v>
-      </c>
-      <c r="D159">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>297</v>
-      </c>
-      <c r="B161" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C162" t="s">
-        <v>298</v>
-      </c>
-      <c r="D162" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C163" t="s">
-        <v>299</v>
-      </c>
-      <c r="D163" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C164" t="s">
-        <v>300</v>
-      </c>
-      <c r="D164" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C165" t="s">
-        <v>301</v>
-      </c>
-      <c r="D165" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C166" t="s">
-        <v>216</v>
-      </c>
-      <c r="D166" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>302</v>
-      </c>
-      <c r="B168" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C169" t="s">
-        <v>194</v>
-      </c>
-      <c r="D169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C170" t="s">
-        <v>195</v>
-      </c>
-      <c r="D170">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>303</v>
-      </c>
-      <c r="B172" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C173" t="s">
-        <v>194</v>
-      </c>
-      <c r="D173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C174" t="s">
-        <v>195</v>
-      </c>
-      <c r="D174">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>304</v>
-      </c>
-      <c r="B176" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C177" t="s">
-        <v>305</v>
-      </c>
-      <c r="D177" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C178" t="s">
-        <v>306</v>
-      </c>
-      <c r="D178" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C179" t="s">
-        <v>307</v>
-      </c>
-      <c r="D179" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C180" t="s">
-        <v>308</v>
-      </c>
-      <c r="D180" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>309</v>
-      </c>
-      <c r="B182" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C183" t="s">
-        <v>310</v>
-      </c>
-      <c r="D183" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C184" t="s">
-        <v>312</v>
-      </c>
-      <c r="D184" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C185" t="s">
-        <v>314</v>
-      </c>
-      <c r="D185" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C186" t="s">
-        <v>308</v>
-      </c>
-      <c r="D186" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
-        <v>317</v>
-      </c>
-      <c r="B188" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C189" t="s">
-        <v>194</v>
-      </c>
-      <c r="D189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C190" t="s">
-        <v>195</v>
-      </c>
-      <c r="D190">
+        <v>190</v>
+      </c>
+      <c r="D117">
         <v>2</v>
       </c>
     </row>
@@ -3752,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -3776,7 +4075,7 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -3805,18 +4104,18 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="F8" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="F9" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -3829,7 +4128,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
@@ -3837,7 +4136,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -3845,7 +4144,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="F13" t="s">
         <v>27</v>
@@ -3877,7 +4176,7 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="F17" t="s">
         <v>35</v>
@@ -3893,42 +4192,42 @@
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E19" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="F19" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="F20" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="F21" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="F22" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="F23" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.35">
@@ -3936,47 +4235,47 @@
         <v>68</v>
       </c>
       <c r="F24" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E25" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="F25" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E26" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="F26" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E27" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="F27" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E28" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="F28" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E29" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="F29" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.35">
@@ -3997,82 +4296,82 @@
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E32" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="F32" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E33" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="F33" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E34" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="F34" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E35" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="F35" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E36" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="F36" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="D37" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E38" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="F38" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E39" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="F39" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E40" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="F40" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E41" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="F41" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.35">
@@ -4085,82 +4384,82 @@
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E43" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="F43" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E44" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="F44" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E45" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="F45" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E46" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="F46" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E47" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="F47" t="s">
-        <v>378</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E48" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="F48" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E49" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="F49" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E50" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="F50" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E51" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="F51" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E52" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="F52" t="s">
-        <v>388</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.35">
@@ -4173,42 +4472,42 @@
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E54" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
       <c r="F54" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E55" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="F55" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E56" t="s">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="F56" t="s">
-        <v>394</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E57" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="F57" t="s">
-        <v>396</v>
+        <v>361</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E58" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="F58" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.35">
@@ -4221,90 +4520,90 @@
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
-        <v>399</v>
+        <v>364</v>
       </c>
       <c r="D60" t="s">
-        <v>400</v>
+        <v>365</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E61" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="F61" t="s">
-        <v>402</v>
+        <v>367</v>
       </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E62" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="F62" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E63" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="F63" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E64" t="s">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="F64" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E65" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="F65" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E66" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="F66" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E67" t="s">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="F67" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E68" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="F68" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E69" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="F69" t="s">
-        <v>418</v>
+        <v>383</v>
       </c>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E70" t="s">
-        <v>419</v>
+        <v>384</v>
       </c>
       <c r="F70" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.35">
@@ -4325,42 +4624,42 @@
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E73" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="F73" t="s">
-        <v>422</v>
+        <v>387</v>
       </c>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E74" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="F74" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E75" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="F75" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E76" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="F76" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E77" t="s">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="F77" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.35">
@@ -4404,8 +4703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4418,16 +4717,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>473</v>
+        <v>438</v>
       </c>
       <c r="B1" t="s">
-        <v>474</v>
+        <v>439</v>
       </c>
       <c r="C1" t="s">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="D1" t="s">
-        <v>476</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -4438,10 +4737,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" t="s">
         <v>171</v>
-      </c>
-      <c r="D2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -4452,10 +4751,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" t="s">
         <v>173</v>
-      </c>
-      <c r="D3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -4466,10 +4765,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" t="s">
         <v>175</v>
-      </c>
-      <c r="D4" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -4480,10 +4779,10 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" t="s">
         <v>177</v>
-      </c>
-      <c r="D5" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -4494,21 +4793,21 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" t="s">
         <v>179</v>
-      </c>
-      <c r="D6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4516,13 +4815,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -4530,13 +4829,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -4544,167 +4843,167 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="B14" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="C14" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="D14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="B15" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="C15" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="B16" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="C16" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="B17" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="C17" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="B18" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="C18" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="B19" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="C19" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="B20" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="C20" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="B21" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="C21" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -4712,13 +5011,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="B22" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="C22" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -4732,10 +5031,10 @@
         <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="D23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -4746,10 +5045,10 @@
         <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="D24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -4760,10 +5059,10 @@
         <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -4774,10 +5073,10 @@
         <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="D26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -4788,10 +5087,10 @@
         <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="D27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -4802,399 +5101,399 @@
         <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D28" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="B29" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="C29" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D29" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="B30" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="C30" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="D30" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="B31" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="C31" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="D31" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="B32" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="C32" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="D32" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="B33" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="C33" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D33" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="C34" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="D34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="B35" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="C35" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="D35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="B36" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="C36" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="D36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="B37" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="C37" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="B38" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="C38" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="B39" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="C39" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="B40" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="C40" t="s">
-        <v>434</v>
+        <v>399</v>
       </c>
       <c r="D40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="B41" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="C41" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="D41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="B42" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="C42" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="D42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="B43" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="C43" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="D43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="B44" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="C44" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="D44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="B45" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="C45" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="D45" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="B46" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="C46" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="D46" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="B47" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="C47" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="D47" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="B48" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="C48" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="D48" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="B49" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="C49" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="B50" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="C50" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="B51" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="C51" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="D51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="B52" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="C52" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="D52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="B53" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="C53" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="D53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="B54" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="C54" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
       <c r="D54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="B55" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="C55" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="B56" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="C56" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -5202,13 +5501,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="B57" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="C57" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -5216,13 +5515,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="B58" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="C58" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -5230,13 +5529,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="B59" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="C59" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -5244,181 +5543,181 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="B60" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="C60" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="D60" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="B61" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="C61" t="s">
-        <v>440</v>
+        <v>405</v>
       </c>
       <c r="D61" t="s">
-        <v>441</v>
+        <v>406</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="B62" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="C62" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="D62" t="s">
-        <v>443</v>
+        <v>408</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="B63" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="C63" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="D63" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="B64" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="C64" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="D64" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="B65" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="C65" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D65" t="s">
-        <v>446</v>
+        <v>411</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="B66" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="C66" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="D66" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="B67" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="C67" t="s">
-        <v>440</v>
+        <v>405</v>
       </c>
       <c r="D67" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="B68" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="C68" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="D68" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="B69" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="C69" t="s">
-        <v>447</v>
+        <v>412</v>
       </c>
       <c r="D69" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="B70" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="C70" t="s">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="D70" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="B71" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="C71" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D71" t="s">
-        <v>449</v>
+        <v>414</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
       <c r="B72" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="C72" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -5426,13 +5725,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
       <c r="B73" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="C73" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -5440,125 +5739,125 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="B74" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="C74" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="D74" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="B75" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="C75" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="D75" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="B76" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="C76" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="D76" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="B77" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="C77" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="D77" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="B78" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="C78" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="D78" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="B79" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="C79" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="D79" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="B80" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="C80" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="D80" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="B81" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="C81" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D81" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="B82" t="s">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="C82" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -5566,13 +5865,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="B83" t="s">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="C83" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -5586,7 +5885,7 @@
         <v>139</v>
       </c>
       <c r="C84" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -5600,7 +5899,7 @@
         <v>139</v>
       </c>
       <c r="C85" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D85">
         <v>2</v>
@@ -5608,13 +5907,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="B86" t="s">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="C86" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -5622,13 +5921,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="B87" t="s">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="C87" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D87">
         <v>2</v>
@@ -5636,13 +5935,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="B88" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="C88" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -5650,13 +5949,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="B89" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="C89" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D89">
         <v>2</v>
@@ -5664,153 +5963,153 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="B90" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="C90" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="D90" t="s">
-        <v>451</v>
+        <v>416</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="B91" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="C91" t="s">
-        <v>452</v>
+        <v>417</v>
       </c>
       <c r="D91" t="s">
-        <v>453</v>
+        <v>418</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="B92" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="C92" t="s">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="D92" t="s">
-        <v>455</v>
+        <v>420</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="B93" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="C93" t="s">
-        <v>456</v>
+        <v>421</v>
       </c>
       <c r="D93" t="s">
-        <v>457</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="B94" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="C94" t="s">
-        <v>458</v>
+        <v>423</v>
       </c>
       <c r="D94" t="s">
-        <v>459</v>
+        <v>424</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="B95" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="C95" t="s">
-        <v>460</v>
+        <v>425</v>
       </c>
       <c r="D95" t="s">
-        <v>461</v>
+        <v>426</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="B96" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="C96" t="s">
-        <v>462</v>
+        <v>427</v>
       </c>
       <c r="D96" t="s">
-        <v>463</v>
+        <v>428</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="B97" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="C97" t="s">
-        <v>464</v>
+        <v>429</v>
       </c>
       <c r="D97" t="s">
-        <v>465</v>
+        <v>430</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="B98" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="C98" t="s">
-        <v>466</v>
+        <v>431</v>
       </c>
       <c r="D98" t="s">
-        <v>467</v>
+        <v>432</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="B99" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="C99" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
       <c r="D99" t="s">
-        <v>469</v>
+        <v>434</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="B100" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="C100" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -5818,13 +6117,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="B101" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="C101" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D101">
         <v>2</v>
@@ -5832,13 +6131,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="B102" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="C102" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -5846,13 +6145,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="B103" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="C103" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -5860,83 +6159,83 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="B104" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="C104" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="D104" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="B105" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="C105" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="D105" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="B106" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="C106" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="D106" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="B107" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="C107" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="D107" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="B108" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="C108" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D108" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>419</v>
+        <v>384</v>
       </c>
       <c r="B109" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="C109" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -5944,13 +6243,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>419</v>
+        <v>384</v>
       </c>
       <c r="B110" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="C110" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D110">
         <v>2</v>
@@ -5964,7 +6263,7 @@
         <v>105</v>
       </c>
       <c r="C111" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -5978,7 +6277,7 @@
         <v>105</v>
       </c>
       <c r="C112" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D112">
         <v>2</v>
@@ -5986,69 +6285,69 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="B113" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="C113" t="s">
-        <v>470</v>
+        <v>435</v>
       </c>
       <c r="D113" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="B114" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="C114" t="s">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="D114" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="B115" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="C115" t="s">
-        <v>472</v>
+        <v>437</v>
       </c>
       <c r="D115" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="B116" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="C116" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D116" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="B117" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="C117" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -6056,13 +6355,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="B118" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="C118" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D118">
         <v>2</v>
@@ -6076,7 +6375,7 @@
         <v>109</v>
       </c>
       <c r="C119" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -6090,7 +6389,7 @@
         <v>109</v>
       </c>
       <c r="C120" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D120">
         <v>2</v>
@@ -6104,10 +6403,10 @@
         <v>111</v>
       </c>
       <c r="C121" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="D121" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -6118,10 +6417,10 @@
         <v>111</v>
       </c>
       <c r="C122" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="D122" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
@@ -6132,10 +6431,10 @@
         <v>111</v>
       </c>
       <c r="C123" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D123" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
